--- a/questions/tours_go_together.xlsx
+++ b/questions/tours_go_together.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3218</v>
+        <v>2964</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2684</v>
+        <v>2430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2684</v>
+        <v>2430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2684</v>
+        <v>2430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1454</v>
+        <v>1283</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1199</v>
+        <v>1138</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1184</v>
+        <v>1078</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1184</v>
+        <v>1078</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1184</v>
+        <v>1078</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1184</v>
+        <v>1078</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1184</v>
+        <v>1078</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>991</v>
+        <v>878</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>661</v>
+        <v>549</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>661</v>
+        <v>549</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>661</v>
+        <v>549</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>661</v>
+        <v>549</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>661</v>
+        <v>549</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1128,161 +1128,161 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('181', '278EN', '51', 'TO240')</t>
+          <t>('490IT', 'STL512')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('181', '278DE', '51', 'TO240')</t>
+          <t>('490EN', '543', '644', 'STL512')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('181', '278ES', '51', 'TO240')</t>
+          <t>('288DE', 'STL284')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Unknown, Rome: Castel Sant’ Angelo Skip-the-Line Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('181', '278FR', '51', 'TO240')</t>
+          <t>('288IT', 'STL284')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Unknown, Rome: Castel Sant’ Angelo Skip-the-Line Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('181', '278IT', '51', 'TO240')</t>
+          <t>('288EN', 'STL284')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Unknown, Rome: Castel Sant’ Angelo Skip-the-Line Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('288EN', 'STL284')</t>
+          <t>('181', '278FR', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Unknown, Rome: Castel Sant’ Angelo Skip-the-Line Ticket &amp; Audio Guide</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('288IT', 'STL284')</t>
+          <t>('181', '278ES', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Unknown, Rome: Castel Sant’ Angelo Skip-the-Line Ticket &amp; Audio Guide</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('288DE', 'STL284')</t>
+          <t>('181', '278DE', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Unknown, Rome: Castel Sant’ Angelo Skip-the-Line Ticket &amp; Audio Guide</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('490EN', '543', '644', 'STL512')</t>
+          <t>('181', '278EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('490IT', 'STL512')</t>
+          <t>('181', '278IT', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('490FR', 'STL543')</t>
+          <t>('490ES', 'STL543')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1293,11 +1293,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('490ES', 'STL543')</t>
+          <t>('490IT', 'STL543')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1308,11 +1308,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('490IT', 'STL543')</t>
+          <t>('490FR', 'STL543')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1383,45 +1383,45 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('537DE', '539', 'STL526')</t>
+          <t>('537EN', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('537EN', '539', 'STL526')</t>
+          <t>('490EN', '543', 'STL644')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('490EN', '543', 'STL644')</t>
+          <t>('537DE', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
+          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1488,41 +1488,41 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('433EN', 'STL454')</t>
+          <t>('433DE', 'STL454')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
+          <t>Unknown,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('433DE', 'STL454')</t>
+          <t>('433ES', 'STL454')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Unknown,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
+          <t>Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('433FR', 'STL454')</t>
+          <t>('433IT', 'STL454')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1533,11 +1533,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>('433IT', 'STL454')</t>
+          <t>('433FR', 'STL454')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1548,11 +1548,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('433ES', 'STL454')</t>
+          <t>('433EN', 'STL454')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('403DE', 'TO107')</t>
+          <t>('403ES', 'TO107')</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('403EN', 'TO107')</t>
+          <t>('403IT', 'TO107')</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'TO107')</t>
+          <t>('403FR', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('403FR', 'TO107')</t>
+          <t>('403IT', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('403IT', 'TO107')</t>
+          <t>('403FR', 'TO107')</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'TO107')</t>
+          <t>('403DE', 'TO107')</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1706,14 +1706,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('403IT', 'HIGH', 'TO107')</t>
+          <t>('403EN', 'TO107')</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1721,14 +1721,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'TO107')</t>
+          <t>('403ES', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('403ES', 'TO107')</t>
+          <t>('403EN', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'AU240')</t>
+          <t>('181', '459IT', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1968,7 +1968,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('181', '459IT', '51', 'AU240')</t>
+          <t>('181', '459GR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('181', '459GR', '51', 'AU240')</t>
+          <t>('181', '459EN', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1998,7 +1998,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('403IT', 'LOW', 'STL107')</t>
+          <t>('181', '459DE', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2006,14 +2006,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('403ES', 'LOW', 'STL107')</t>
+          <t>('403IT', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2028,7 +2028,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'AU240')</t>
+          <t>('403ES', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('181', '459DE', '51', 'AU240')</t>
+          <t>('181', '459FR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('51DE', 'STL616')</t>
+          <t>('181', '459ES', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2066,33 +2066,33 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'AU240')</t>
+          <t>('426', '460EN', '541', 'STL538')</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Unknown, Madrid: El Retiro Park Self-guided Audio Tour, Madrid: Archaeological Museum Skip-The-Line Ticket,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('51ES', 'STL616')</t>
+          <t>('51EN', 'STL616')</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2118,11 +2118,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('51EN', 'STL616')</t>
+          <t>('51IT', 'STL616')</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2133,67 +2133,67 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('51IT', 'STL616')</t>
+          <t>('51DE', 'STL616')</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('426', '460EN', '541', 'STL538')</t>
+          <t>('51ES', 'STL616')</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Unknown, Madrid: El Retiro Park Self-guided Audio Tour, Madrid: Archaeological Museum Skip-The-Line Ticket,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('479EN', 'STL508')</t>
+          <t>('463EN', 'AU436')</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Thessaloniki: Self-Guided Audio Walking Tour &amp; Narrative,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
+          <t>Unknown, Unknown</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>('463EN', 'AU436')</t>
+          <t>('479EN', 'STL508')</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Unknown, Unknown</t>
+          <t>Thessaloniki: Self-Guided Audio Walking Tour &amp; Narrative,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'TO107')</t>
+          <t>('403DE', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'TO107')</t>
+          <t>('403FR', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'TO107')</t>
+          <t>('403EN', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>

--- a/questions/tours_go_together.xlsx
+++ b/questions/tours_go_together.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('537DE', 'STL539')</t>
+          <t>('537ES', 'STL539')</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -491,14 +491,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Unknown,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('537ES', 'STL539')</t>
+          <t>('537DE', 'STL539')</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -506,14 +506,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
+          <t>Unknown,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('278IT', 'TO240')</t>
+          <t>('181', '459IT', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -521,14 +521,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('278GR', 'TO240')</t>
+          <t>('278FR', 'TO240')</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('278FR', 'TO240')</t>
+          <t>('278en', 'TO240')</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('181', '459IT', '51', 'TO240')</t>
+          <t>('278IT', 'TO240')</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -596,14 +596,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'TO240')</t>
+          <t>('181', '459FR', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('278en', 'TO240')</t>
+          <t>('181', '459EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -626,14 +626,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'TO240')</t>
+          <t>('181', '459DE', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -641,14 +641,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'TO240')</t>
+          <t>('278GR', 'TO240')</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -656,14 +656,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('181', '459DE', '51', 'TO240')</t>
+          <t>('181', '459ES', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -671,7 +671,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('490DE', 'STL512')</t>
+          <t>('490FR', 'STL512')</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unknown,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('490FR', 'STL512')</t>
+          <t>('490EN', 'STL512')</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('490EN', 'STL512')</t>
+          <t>('490DE', 'STL512')</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Unknown,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('226ES', '403', 'STL107')</t>
+          <t>('403FR', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -806,14 +806,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('226FR', '403', 'STL107')</t>
+          <t>('403FR', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -821,14 +821,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'STL107')</t>
+          <t>('403EN', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -836,14 +836,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('226IT', '403', 'STL107')</t>
+          <t>('403IT', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -851,14 +851,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'STL107')</t>
+          <t>('403ES', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -866,14 +866,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'STL107')</t>
+          <t>('403EN', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('226IT', 'STL107')</t>
+          <t>('226DE', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -896,14 +896,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('226DE', 'STL107')</t>
+          <t>('226IT', 'STL107')</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -911,14 +911,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('226FR', 'STL107')</t>
+          <t>('226ES', 'STL107')</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('226ES', 'STL107')</t>
+          <t>('226DE', 'STL107')</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -941,14 +941,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'STL107')</t>
+          <t>('226ES', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -956,14 +956,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'STL107')</t>
+          <t>('226FR', 'STL107')</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -971,14 +971,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('226EN', '403', 'STL107')</t>
+          <t>('403DE', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -986,14 +986,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('226DE', '403', 'STL107')</t>
+          <t>('226IT', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('403IT', 'HIGH', 'STL107')</t>
+          <t>('403DE', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'STL107')</t>
+          <t>('226EN', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1031,14 +1031,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'STL107')</t>
+          <t>('226FR', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('447EN', 'STL55')</t>
+          <t>('447IT', 'STL55')</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('447ES', 'STL55')</t>
+          <t>('447DE', 'STL55')</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('447IT', 'STL55')</t>
+          <t>('447EN', 'STL55')</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('447DE', 'STL55')</t>
+          <t>('447ES', 'STL55')</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('490IT', 'STL512')</t>
+          <t>('490EN', '543', '644', 'STL512')</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('490EN', '543', '644', 'STL512')</t>
+          <t>('490IT', 'STL512')</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('288IT', 'STL284')</t>
+          <t>('288EN', 'STL284')</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('288EN', 'STL284')</t>
+          <t>('288IT', 'STL284')</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('181', '278DE', '51', 'TO240')</t>
+          <t>('181', '278EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1241,14 +1241,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('181', '278EN', '51', 'TO240')</t>
+          <t>('181', '278DE', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('490ES', 'STL543')</t>
+          <t>('490IT', 'STL543')</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('490IT', 'STL543')</t>
+          <t>('490FR', 'STL543')</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('490FR', 'STL543')</t>
+          <t>('490EN', 'STL543')</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('490EN', 'STL543')</t>
+          <t>('490ES', 'STL543')</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('537EN', '539', 'STL526')</t>
+          <t>('537DE', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1391,14 +1391,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('490EN', '543', 'STL644')</t>
+          <t>('537EN', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1406,14 +1406,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('537DE', '539', 'STL526')</t>
+          <t>('490EN', '543', 'STL644')</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1421,14 +1421,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('226EN', 'STL403')</t>
+          <t>('226FR', 'STL403')</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('226FR', 'STL403')</t>
+          <t>('226EN', 'STL403')</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('226DE', 'STL403')</t>
+          <t>('226ES', 'STL403')</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Unknown, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('226ES', 'STL403')</t>
+          <t>('226DE', 'STL403')</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
+          <t>Unknown, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('433ES', 'STL454')</t>
+          <t>('433EN', 'STL454')</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('433IT', 'STL454')</t>
+          <t>('433ES', 'STL454')</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('433EN', 'STL454')</t>
+          <t>('433IT', 'STL454')</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('181', '459DE', 'STL51')</t>
+          <t>('181', '459EN', 'STL51')</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('181', '459FR', 'STL51')</t>
+          <t>('181', '459DE', 'STL51')</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('181', '459EN', 'STL51')</t>
+          <t>('181', '459FR', 'STL51')</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('403ES', 'TO107')</t>
+          <t>('403DE', 'TO107')</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('403IT', 'TO107')</t>
+          <t>('403EN', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'TO107')</t>
+          <t>('403FR', 'TO107')</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('403IT', 'HIGH', 'TO107')</t>
+          <t>('403DE', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('403FR', 'TO107')</t>
+          <t>('403EN', 'TO107')</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('403DE', 'TO107')</t>
+          <t>('403IT', 'TO107')</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1706,14 +1706,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('403EN', 'TO107')</t>
+          <t>('403ES', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1721,14 +1721,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'TO107')</t>
+          <t>('403ES', 'TO107')</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'TO107')</t>
+          <t>('403FR', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'TO107')</t>
+          <t>('403IT', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('55IT', 'STL278')</t>
+          <t>('447IT', 'STL278')</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('55FR', 'STL278')</t>
+          <t>('55EN', 'STL278')</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('55ES', 'STL278')</t>
+          <t>('447EN', 'STL278')</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1811,14 +1811,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('55EN', 'STL278')</t>
+          <t>('447ES', 'STL278')</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1826,14 +1826,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('447IT', 'STL278')</t>
+          <t>('447FR', 'STL278')</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('447FR', 'STL278')</t>
+          <t>('55ES', 'STL278')</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1871,14 +1871,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('447ES', 'STL278')</t>
+          <t>('55FR', 'STL278')</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('447EN', 'STL278')</t>
+          <t>('55IT', 'STL278')</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'AU240')</t>
+          <t>('403IT', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1991,14 +1991,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('181', '459DE', '51', 'AU240')</t>
+          <t>('181', '459FR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2006,14 +2006,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('403IT', 'LOW', 'STL107')</t>
+          <t>('181', '459ES', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2021,14 +2021,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('403ES', 'LOW', 'STL107')</t>
+          <t>('181', '459EN', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'AU240')</t>
+          <t>('181', '459DE', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'AU240')</t>
+          <t>('403ES', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('51FR', 'STL616')</t>
+          <t>('51ES', 'STL616')</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('51IT', 'STL616')</t>
+          <t>('51FR', 'STL616')</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('51DE', 'STL616')</t>
+          <t>('51IT', 'STL616')</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2141,14 +2141,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('51ES', 'STL616')</t>
+          <t>('51DE', 'STL616')</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'TO107')</t>
+          <t>('403FR', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'TO107')</t>
+          <t>('403EN', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'TO107')</t>
+          <t>('403DE', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2246,14 +2246,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('309', '427EN', 'STL340')</t>
+          <t>('632EN', 'STL508')</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2261,14 +2261,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Seville: Royal Alcázares Skip-the-Line Entry with Audio Tour, Seville: Cathedral and Royal Alcázares Ticket and Audio Tour,  Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
+          <t>Unknown,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('632EN', 'STL508')</t>
+          <t>('309', '427EN', 'STL340')</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Unknown,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
+          <t>Seville: Royal Alcázares Skip-the-Line Entry with Audio Tour, Seville: Cathedral and Royal Alcázares Ticket and Audio Tour,  Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
         </is>
       </c>
     </row>

--- a/questions/tours_go_together.xlsx
+++ b/questions/tours_go_together.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('537ES', 'STL539')</t>
+          <t>('537DE', 'STL539')</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -491,14 +491,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
+          <t>Unknown,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('537DE', 'STL539')</t>
+          <t>('537ES', 'STL539')</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -506,14 +506,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Unknown,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('181', '459IT', '51', 'TO240')</t>
+          <t>('278IT', 'TO240')</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -521,14 +521,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('278FR', 'TO240')</t>
+          <t>('278GR', 'TO240')</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('278en', 'TO240')</t>
+          <t>('278FR', 'TO240')</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('278IT', 'TO240')</t>
+          <t>('181', '459IT', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -596,14 +596,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'TO240')</t>
+          <t>('181', '459EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'TO240')</t>
+          <t>('278en', 'TO240')</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -626,14 +626,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('181', '459DE', '51', 'TO240')</t>
+          <t>('181', '459FR', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -641,14 +641,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('278GR', 'TO240')</t>
+          <t>('181', '459ES', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -656,14 +656,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'TO240')</t>
+          <t>('181', '459DE', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -671,7 +671,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('490FR', 'STL512')</t>
+          <t>('490DE', 'STL512')</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Unknown,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('490EN', 'STL512')</t>
+          <t>('490FR', 'STL512')</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('490DE', 'STL512')</t>
+          <t>('490EN', 'STL512')</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Unknown,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'STL107')</t>
+          <t>('226ES', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -806,14 +806,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'STL107')</t>
+          <t>('226FR', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -821,14 +821,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'STL107')</t>
+          <t>('403DE', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -836,14 +836,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('403IT', 'HIGH', 'STL107')</t>
+          <t>('226IT', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -851,14 +851,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'STL107')</t>
+          <t>('403DE', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -866,14 +866,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'STL107')</t>
+          <t>('403EN', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('226DE', '403', 'STL107')</t>
+          <t>('226IT', 'STL107')</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -896,14 +896,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('226IT', 'STL107')</t>
+          <t>('226DE', 'STL107')</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -911,14 +911,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('226ES', 'STL107')</t>
+          <t>('226FR', 'STL107')</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('226DE', 'STL107')</t>
+          <t>('226ES', 'STL107')</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -941,14 +941,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('226ES', '403', 'STL107')</t>
+          <t>('403EN', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -956,14 +956,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('226FR', 'STL107')</t>
+          <t>('403FR', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -971,14 +971,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'STL107')</t>
+          <t>('226EN', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -986,14 +986,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('226IT', '403', 'STL107')</t>
+          <t>('226DE', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'STL107')</t>
+          <t>('403IT', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('226EN', '403', 'STL107')</t>
+          <t>('403FR', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1031,14 +1031,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('226FR', '403', 'STL107')</t>
+          <t>('403ES', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('447IT', 'STL55')</t>
+          <t>('447EN', 'STL55')</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('447DE', 'STL55')</t>
+          <t>('447ES', 'STL55')</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('447EN', 'STL55')</t>
+          <t>('447IT', 'STL55')</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('447ES', 'STL55')</t>
+          <t>('447DE', 'STL55')</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('490EN', '543', '644', 'STL512')</t>
+          <t>('490IT', 'STL512')</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('490IT', 'STL512')</t>
+          <t>('490EN', '543', '644', 'STL512')</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('288EN', 'STL284')</t>
+          <t>('288IT', 'STL284')</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('288IT', 'STL284')</t>
+          <t>('288EN', 'STL284')</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('181', '278EN', '51', 'TO240')</t>
+          <t>('181', '278DE', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1241,14 +1241,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('181', '278DE', '51', 'TO240')</t>
+          <t>('181', '278EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('490IT', 'STL543')</t>
+          <t>('490ES', 'STL543')</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('490FR', 'STL543')</t>
+          <t>('490IT', 'STL543')</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('490EN', 'STL543')</t>
+          <t>('490FR', 'STL543')</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('490ES', 'STL543')</t>
+          <t>('490EN', 'STL543')</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('537DE', '539', 'STL526')</t>
+          <t>('537EN', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1391,14 +1391,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('537EN', '539', 'STL526')</t>
+          <t>('490EN', '543', 'STL644')</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1406,14 +1406,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('490EN', '543', 'STL644')</t>
+          <t>('537DE', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1421,14 +1421,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
+          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('226FR', 'STL403')</t>
+          <t>('226EN', 'STL403')</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('226EN', 'STL403')</t>
+          <t>('226FR', 'STL403')</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('226ES', 'STL403')</t>
+          <t>('226DE', 'STL403')</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
+          <t>Unknown, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('226DE', 'STL403')</t>
+          <t>('226ES', 'STL403')</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Unknown, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('433EN', 'STL454')</t>
+          <t>('433ES', 'STL454')</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('433ES', 'STL454')</t>
+          <t>('433IT', 'STL454')</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('433IT', 'STL454')</t>
+          <t>('433EN', 'STL454')</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('181', '459EN', 'STL51')</t>
+          <t>('181', '459DE', 'STL51')</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('181', '459DE', 'STL51')</t>
+          <t>('181', '459FR', 'STL51')</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('181', '459FR', 'STL51')</t>
+          <t>('181', '459EN', 'STL51')</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('403DE', 'TO107')</t>
+          <t>('403ES', 'TO107')</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'TO107')</t>
+          <t>('403IT', 'TO107')</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('403FR', 'TO107')</t>
+          <t>('403FR', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'TO107')</t>
+          <t>('403IT', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('403EN', 'TO107')</t>
+          <t>('403FR', 'TO107')</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('403IT', 'TO107')</t>
+          <t>('403DE', 'TO107')</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1706,14 +1706,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'TO107')</t>
+          <t>('403EN', 'TO107')</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1721,14 +1721,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('403ES', 'TO107')</t>
+          <t>('403ES', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'TO107')</t>
+          <t>('403EN', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('403IT', 'HIGH', 'TO107')</t>
+          <t>('403DE', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('447IT', 'STL278')</t>
+          <t>('55IT', 'STL278')</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('55EN', 'STL278')</t>
+          <t>('55FR', 'STL278')</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('447EN', 'STL278')</t>
+          <t>('55ES', 'STL278')</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1811,14 +1811,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('447ES', 'STL278')</t>
+          <t>('55EN', 'STL278')</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1826,14 +1826,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('447FR', 'STL278')</t>
+          <t>('447IT', 'STL278')</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1863,7 +1863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('55ES', 'STL278')</t>
+          <t>('447FR', 'STL278')</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1871,14 +1871,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('55FR', 'STL278')</t>
+          <t>('447ES', 'STL278')</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('55IT', 'STL278')</t>
+          <t>('447EN', 'STL278')</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('403IT', 'LOW', 'STL107')</t>
+          <t>('181', '459EN', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1991,14 +1991,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'AU240')</t>
+          <t>('181', '459DE', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2006,14 +2006,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'AU240')</t>
+          <t>('403IT', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2021,14 +2021,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'AU240')</t>
+          <t>('403ES', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('181', '459DE', '51', 'AU240')</t>
+          <t>('181', '459FR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('403ES', 'LOW', 'STL107')</t>
+          <t>('181', '459ES', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('51ES', 'STL616')</t>
+          <t>('51FR', 'STL616')</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2118,7 +2118,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('51FR', 'STL616')</t>
+          <t>('51IT', 'STL616')</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2133,7 +2133,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('51IT', 'STL616')</t>
+          <t>('51DE', 'STL616')</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2141,14 +2141,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('51DE', 'STL616')</t>
+          <t>('51ES', 'STL616')</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'TO107')</t>
+          <t>('403DE', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'TO107')</t>
+          <t>('403FR', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2238,7 +2238,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'TO107')</t>
+          <t>('403EN', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2246,14 +2246,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('632EN', 'STL508')</t>
+          <t>('309', '427EN', 'STL340')</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2261,14 +2261,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Unknown,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
+          <t>Seville: Royal Alcázares Skip-the-Line Entry with Audio Tour, Seville: Cathedral and Royal Alcázares Ticket and Audio Tour,  Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('309', '427EN', 'STL340')</t>
+          <t>('632EN', 'STL508')</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Seville: Royal Alcázares Skip-the-Line Entry with Audio Tour, Seville: Cathedral and Royal Alcázares Ticket and Audio Tour,  Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
+          <t>Unknown,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
         </is>
       </c>
     </row>

--- a/questions/tours_go_together.xlsx
+++ b/questions/tours_go_together.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Product_Combination</t>
+          <t>product_combinations</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -445,6 +445,11 @@
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Profit</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>tour_names</t>
         </is>
@@ -459,7 +464,10 @@
       <c r="B2" t="n">
         <v>2964</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>102856.82</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
@@ -468,13 +476,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('537FR', 'STL539')</t>
+          <t>('537ES', 'STL539')</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2430</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>87252.5</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
@@ -489,7 +500,10 @@
       <c r="B4" t="n">
         <v>2430</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>87252.5</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Unknown,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
@@ -498,13 +512,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('537ES', 'STL539')</t>
+          <t>('537FR', 'STL539')</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2430</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>87252.5</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
@@ -513,28 +530,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('278IT', 'TO240')</t>
+          <t>('181', '459ES', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1283</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C6" t="n">
+        <v>34970</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('278GR', 'TO240')</t>
+          <t>('278ES', 'TO240')</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1283</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>27568</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
@@ -543,58 +566,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('278ES', 'TO240')</t>
+          <t>('181', '459FR', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1283</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C8" t="n">
+        <v>34970</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('278FR', 'TO240')</t>
+          <t>('181', '459IT', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1283</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C9" t="n">
+        <v>34970</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('278DE', 'TO240')</t>
+          <t>('181', '459DE', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1283</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C10" t="n">
+        <v>34970</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('181', '459IT', '51', 'TO240')</t>
+          <t>('181', '459EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1283</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>34970</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
@@ -603,15 +638,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'TO240')</t>
+          <t>('278DE', 'TO240')</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1283</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C12" t="n">
+        <v>27568</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -624,7 +662,10 @@
       <c r="B13" t="n">
         <v>1283</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>27568</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
@@ -633,45 +674,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'TO240')</t>
+          <t>('278FR', 'TO240')</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1283</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C14" t="n">
+        <v>27568</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'TO240')</t>
+          <t>('278GR', 'TO240')</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1283</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C15" t="n">
+        <v>27568</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('181', '459DE', '51', 'TO240')</t>
+          <t>('278IT', 'TO240')</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1283</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C16" t="n">
+        <v>27568</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -684,7 +734,10 @@
       <c r="B17" t="n">
         <v>1138</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>38975.6</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Unknown, Cordoba: Mosque-Cathedral Skip-the-Line E-Ticket with Audio</t>
         </is>
@@ -693,73 +746,88 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('490ES', 'STL512')</t>
+          <t>('490DE', 'STL512')</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1078</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+      <c r="C18" t="n">
+        <v>38292</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Unknown,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('490DE', 'STL512')</t>
+          <t>('490EN', 'STL512')</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1078</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Unknown,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+      <c r="C19" t="n">
+        <v>38340</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('490EN', '775', 'STL512')</t>
+          <t>('490FR', 'STL512')</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1078</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon:E-ticket to National Tile Museum with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+      <c r="C20" t="n">
+        <v>38292</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('490FR', 'STL512')</t>
+          <t>('490EN', '775', 'STL512')</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1078</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+      <c r="C21" t="n">
+        <v>29668</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon:E-ticket to National Tile Museum with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('490EN', 'STL512')</t>
+          <t>('490ES', 'STL512')</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1078</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>38292</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
@@ -774,7 +842,10 @@
       <c r="B23" t="n">
         <v>878</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>39567.62</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Unknown, Sintra: Moorish Castle Entrance E-Ticket With Audio Tour, Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
@@ -783,13 +854,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('226EN', 'STL107')</t>
+          <t>('226IT', 'STL107')</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>809</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>25757.65</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
@@ -798,88 +872,106 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('226ES', '403', 'STL107')</t>
+          <t>('403DE', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>809</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C25" t="n">
+        <v>21377.65</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('226FR', '403', 'STL107')</t>
+          <t>('403DE', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>809</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C26" t="n">
+        <v>21377.65</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'STL107')</t>
+          <t>('403EN', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>809</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C27" t="n">
+        <v>21377.65</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('226IT', '403', 'STL107')</t>
+          <t>('226ES', 'STL107')</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>809</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C28" t="n">
+        <v>25757.65</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'STL107')</t>
+          <t>('226ES', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>809</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C29" t="n">
+        <v>18496.65</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'STL107')</t>
+          <t>('403FR', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>809</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>21377.65</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
@@ -888,150 +980,180 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('226IT', 'STL107')</t>
+          <t>('403IT', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>809</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C31" t="n">
+        <v>21377.65</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('226DE', 'STL107')</t>
+          <t>('403FR', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>809</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C32" t="n">
+        <v>21377.65</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('226FR', 'STL107')</t>
+          <t>('226IT', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>809</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C33" t="n">
+        <v>18496.65</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('226ES', 'STL107')</t>
+          <t>('226FR', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>809</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C34" t="n">
+        <v>18496.65</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'STL107')</t>
+          <t>('226FR', 'STL107')</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>809</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C35" t="n">
+        <v>25757.65</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'STL107')</t>
+          <t>('226DE', 'STL107')</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>809</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C36" t="n">
+        <v>25757.65</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('226EN', '403', 'STL107')</t>
+          <t>('226EN', 'STL107')</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>809</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C37" t="n">
+        <v>25757.65</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('226DE', '403', 'STL107')</t>
+          <t>('403EN', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>809</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C38" t="n">
+        <v>21377.65</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('403IT', 'HIGH', 'STL107')</t>
+          <t>('226DE', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>809</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C39" t="n">
+        <v>18496.65</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'STL107')</t>
+          <t>('226EN', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>809</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C40" t="n">
+        <v>18496.65</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1166,10 @@
       <c r="B41" t="n">
         <v>809</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>21377.65</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
@@ -1053,13 +1178,16 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('447FR', 'STL55')</t>
+          <t>('447ES', 'STL55')</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>549</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>16889.6</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
@@ -1074,7 +1202,10 @@
       <c r="B43" t="n">
         <v>549</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>16889.6</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
@@ -1083,13 +1214,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('447ES', 'STL55')</t>
+          <t>('447FR', 'STL55')</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>549</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>16889.6</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
@@ -1098,30 +1232,36 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('447IT', 'STL55')</t>
+          <t>('447DE', 'STL55')</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>549</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+      <c r="C45" t="n">
+        <v>16889.6</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('447DE', 'STL55')</t>
+          <t>('447IT', 'STL55')</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>549</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+      <c r="C46" t="n">
+        <v>16889.6</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1274,10 @@
       <c r="B47" t="n">
         <v>474</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>16375</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
@@ -1149,7 +1292,10 @@
       <c r="B48" t="n">
         <v>474</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>5473</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
@@ -1158,13 +1304,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('288DE', 'STL284')</t>
+          <t>('288EN', 'STL284')</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>470</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>19082.42</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Unknown, Rome: Castel Sant’ Angelo Skip-the-Line Ticket &amp; Audio Guide</t>
         </is>
@@ -1173,13 +1322,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('288IT', 'STL284')</t>
+          <t>('288DE', 'STL284')</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>470</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>19082.42</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Unknown, Rome: Castel Sant’ Angelo Skip-the-Line Ticket &amp; Audio Guide</t>
         </is>
@@ -1188,13 +1340,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('288EN', 'STL284')</t>
+          <t>('288IT', 'STL284')</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>470</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>19082.42</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Unknown, Rome: Castel Sant’ Angelo Skip-the-Line Ticket &amp; Audio Guide</t>
         </is>
@@ -1203,13 +1358,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('181', '278FR', '51', 'TO240')</t>
+          <t>('181', '278IT', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>427</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>17816</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
@@ -1218,30 +1376,36 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('181', '278ES', '51', 'TO240')</t>
+          <t>('181', '278DE', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>427</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C53" t="n">
+        <v>17816</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('181', '278DE', '51', 'TO240')</t>
+          <t>('181', '278ES', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>427</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+      <c r="C54" t="n">
+        <v>17816</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1418,10 @@
       <c r="B55" t="n">
         <v>427</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>17816</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
@@ -1263,13 +1430,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('181', '278IT', '51', 'TO240')</t>
+          <t>('181', '278FR', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>427</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>17816</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis, 8 Top Attractions &amp; Museums + Audio Tours, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
@@ -1278,13 +1448,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('490ES', 'STL543')</t>
+          <t>('490FR', 'STL543')</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>367</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>8363</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
         </is>
@@ -1299,7 +1472,10 @@
       <c r="B58" t="n">
         <v>367</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>8363</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
         </is>
@@ -1308,13 +1484,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('490FR', 'STL543')</t>
+          <t>('490ES', 'STL543')</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>367</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>8363</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
         </is>
@@ -1329,7 +1508,10 @@
       <c r="B60" t="n">
         <v>367</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>8363</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
         </is>
@@ -1344,7 +1526,10 @@
       <c r="B61" t="n">
         <v>367</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>8363</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>Unknown,  Self-Guided City Tour and Belem Tower Entry e-Ticket</t>
         </is>
@@ -1353,13 +1538,16 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('537FR', '539', 'STL526')</t>
+          <t>('537EN', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>210</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>2290.8</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
@@ -1368,73 +1556,88 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('537ES', '539', 'STL526')</t>
+          <t>('490EN', '543', 'STL644')</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>210</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+      <c r="C63" t="n">
+        <v>4699.8</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('537EN', '539', 'STL526')</t>
+          <t>('537DE', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>210</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+      <c r="C64" t="n">
+        <v>2290.8</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('490EN', '543', 'STL644')</t>
+          <t>('537ES', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>210</v>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
+      <c r="C65" t="n">
+        <v>2290.8</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('537DE', '539', 'STL526')</t>
+          <t>('537FR', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>210</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+      <c r="C66" t="n">
+        <v>2290.8</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('226EN', 'STL403')</t>
+          <t>('226ES', 'STL403')</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>143</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>2720</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
@@ -1443,13 +1646,16 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('226FR', 'STL403')</t>
+          <t>('226EN', 'STL403')</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>143</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>2720</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
@@ -1464,7 +1670,10 @@
       <c r="B69" t="n">
         <v>143</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>2720</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>Unknown, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
@@ -1473,13 +1682,16 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('226ES', 'STL403')</t>
+          <t>('226FR', 'STL403')</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>143</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>2720</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
@@ -1488,28 +1700,34 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('433DE', 'STL454')</t>
+          <t>('433ES', 'STL454')</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>127</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Unknown,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
+      <c r="C71" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('433ES', 'STL454')</t>
+          <t>('433EN', 'STL454')</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>127</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
@@ -1524,7 +1742,10 @@
       <c r="B73" t="n">
         <v>127</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
@@ -1533,28 +1754,34 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>('433FR', 'STL454')</t>
+          <t>('433DE', 'STL454')</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>127</v>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
+      <c r="C74" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Unknown,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('433EN', 'STL454')</t>
+          <t>('433FR', 'STL454')</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>127</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
@@ -1563,28 +1790,34 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('181', '459DE', 'STL51')</t>
+          <t>('181', '459EN', 'STL51')</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>89</v>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+      <c r="C76" t="n">
+        <v>1393</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('181', '459FR', 'STL51')</t>
+          <t>('181', '459IT', 'STL51')</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>89</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>1393</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
@@ -1593,28 +1826,34 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('181', '459IT', 'STL51')</t>
+          <t>('181', '459DE', 'STL51')</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>89</v>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+      <c r="C78" t="n">
+        <v>1393</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('181', '459EN', 'STL51')</t>
+          <t>('181', '459FR', 'STL51')</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>89</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>1393</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
@@ -1623,60 +1862,72 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('403ES', 'TO107')</t>
+          <t>('403FR', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>83</v>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+      <c r="C80" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('403IT', 'TO107')</t>
+          <t>('403IT', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>83</v>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+      <c r="C81" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'TO107')</t>
+          <t>('403IT', 'TO107')</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>83</v>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+      <c r="C82" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('403IT', 'HIGH', 'TO107')</t>
+          <t>('403ES', 'TO107')</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>83</v>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+      <c r="C83" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1940,10 @@
       <c r="B84" t="n">
         <v>83</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
@@ -1698,118 +1952,142 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('403DE', 'TO107')</t>
+          <t>('403EN', 'TO107')</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>83</v>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+      <c r="C85" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('403EN', 'TO107')</t>
+          <t>('403EN', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>83</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+      <c r="C86" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'TO107')</t>
+          <t>('403DE', 'TO107')</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>83</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+      <c r="C87" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'TO107')</t>
+          <t>('403DE', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>83</v>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+      <c r="C88" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'TO107')</t>
+          <t>('403ES', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>83</v>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+      <c r="C89" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('55IT', 'STL278')</t>
+          <t>('447ES', 'STL278')</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>60</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+      <c r="C90" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('55FR', 'STL278')</t>
+          <t>('447DE', 'STL278')</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>60</v>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+      <c r="C91" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('55ES', 'STL278')</t>
+          <t>('55IT', 'STL278')</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>60</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>1484</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
@@ -1818,13 +2096,16 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('55EN', 'STL278')</t>
+          <t>('55FR', 'STL278')</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>60</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>1484</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
@@ -1833,43 +2114,52 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('447IT', 'STL278')</t>
+          <t>('55EN', 'STL278')</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>60</v>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+      <c r="C94" t="n">
+        <v>1484</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('55DE', 'STL278')</t>
+          <t>('447IT', 'STL278')</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>60</v>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+      <c r="C95" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('447FR', 'STL278')</t>
+          <t>('447EN', 'STL278')</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>60</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
@@ -1878,45 +2168,54 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('447ES', 'STL278')</t>
+          <t>('55ES', 'STL278')</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>60</v>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+      <c r="C97" t="n">
+        <v>1484</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('447EN', 'STL278')</t>
+          <t>('55DE', 'STL278')</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>60</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+      <c r="C98" t="n">
+        <v>1484</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('447DE', 'STL278')</t>
+          <t>('447FR', 'STL278')</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>60</v>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+      <c r="C99" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
@@ -1929,7 +2228,10 @@
       <c r="B100" t="n">
         <v>30</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>384</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>Unknown, Madrid: Archaeological Museum Skip-The-Line Ticket</t>
         </is>
@@ -1944,7 +2246,10 @@
       <c r="B101" t="n">
         <v>16</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>342</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour, Lindos: Acropolis Entry with Guided Audio Phone Tour,  Palace of the Grand Master e-Ticket &amp; Rhodes City Audio Tour</t>
         </is>
@@ -1953,13 +2258,16 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('181', '459IT', '51', 'AU240')</t>
+          <t>('181', '459EN', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>15</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>182.76</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
@@ -1968,28 +2276,34 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('181', '459GR', '51', 'AU240')</t>
+          <t>('181', '459DE', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>15</v>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+      <c r="C103" t="n">
+        <v>182.76</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'AU240')</t>
+          <t>('181', '459IT', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>15</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" t="n">
+        <v>182.76</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
@@ -1998,75 +2312,90 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('181', '459DE', '51', 'AU240')</t>
+          <t>('181', '459GR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>15</v>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+      <c r="C105" t="n">
+        <v>182.76</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('403IT', 'LOW', 'STL107')</t>
+          <t>('181', '459ES', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>15</v>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C106" t="n">
+        <v>182.76</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('403ES', 'LOW', 'STL107')</t>
+          <t>('181', '459FR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>15</v>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+      <c r="C107" t="n">
+        <v>182.76</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'AU240')</t>
+          <t>('403ES', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>15</v>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+      <c r="C108" t="n">
+        <v>242.4</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'AU240')</t>
+          <t>('403IT', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>15</v>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+      <c r="C109" t="n">
+        <v>242.4</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2408,10 @@
       <c r="B110" t="n">
         <v>13</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" t="n">
+        <v>390.35</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>Unknown, Madrid: El Retiro Park Self-guided Audio Tour, Madrid: Archaeological Museum Skip-The-Line Ticket,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
         </is>
@@ -2088,15 +2420,18 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('51EN', 'STL616')</t>
+          <t>('51DE', 'STL616')</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>11</v>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+      <c r="C111" t="n">
+        <v>85</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2444,10 @@
       <c r="B112" t="n">
         <v>11</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>85</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
@@ -2118,13 +2456,16 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('51IT', 'STL616')</t>
+          <t>('51ES', 'STL616')</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>11</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" t="n">
+        <v>85</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
@@ -2133,28 +2474,34 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('51DE', 'STL616')</t>
+          <t>('51IT', 'STL616')</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>11</v>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+      <c r="C114" t="n">
+        <v>85</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('51ES', 'STL616')</t>
+          <t>('51EN', 'STL616')</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>11</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" t="n">
+        <v>85</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
@@ -2169,7 +2516,10 @@
       <c r="B116" t="n">
         <v>8</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" t="n">
+        <v>119.84</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>Unknown, Unknown</t>
         </is>
@@ -2184,7 +2534,10 @@
       <c r="B117" t="n">
         <v>5</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" t="n">
+        <v>209</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>Thessaloniki: Self-Guided Audio Walking Tour &amp; Narrative,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
         </is>
@@ -2199,7 +2552,10 @@
       <c r="B118" t="n">
         <v>4</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" t="n">
+        <v>25</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
@@ -2208,13 +2564,16 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('403ES', 'LOW', 'TO107')</t>
+          <t>('403EN', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>4</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" t="n">
+        <v>25</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
@@ -2229,7 +2588,10 @@
       <c r="B120" t="n">
         <v>4</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" t="n">
+        <v>25</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
@@ -2238,13 +2600,16 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'TO107')</t>
+          <t>('403ES', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>4</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" t="n">
+        <v>25</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
@@ -2259,7 +2624,10 @@
       <c r="B122" t="n">
         <v>1</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" t="n">
+        <v>14</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>Seville: Royal Alcázares Skip-the-Line Entry with Audio Tour, Seville: Cathedral and Royal Alcázares Ticket and Audio Tour,  Seville: Cathedral and Royal Alcázares Ticket and Audio Tour</t>
         </is>
@@ -2274,7 +2642,10 @@
       <c r="B123" t="n">
         <v>1</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>Unknown,  Athens: Acropolis Ticket and Audio Tour with Optional Sites</t>
         </is>

--- a/questions/tours_go_together.xlsx
+++ b/questions/tours_go_together.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total_Profit</t>
+          <t>Average_Profit</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -465,7 +465,7 @@
         <v>2964</v>
       </c>
       <c r="C2" t="n">
-        <v>102856.82</v>
+        <v>34.7020310391363</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
         <v>2430</v>
       </c>
       <c r="C3" t="n">
-        <v>87252.5</v>
+        <v>35.90637860082305</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
         <v>2430</v>
       </c>
       <c r="C4" t="n">
-        <v>87252.5</v>
+        <v>35.90637860082305</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
         <v>2430</v>
       </c>
       <c r="C5" t="n">
-        <v>87252.5</v>
+        <v>35.90637860082305</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         <v>1283</v>
       </c>
       <c r="C6" t="n">
-        <v>34970</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         <v>1283</v>
       </c>
       <c r="C7" t="n">
-        <v>27568</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         <v>1283</v>
       </c>
       <c r="C8" t="n">
-        <v>34970</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>1283</v>
       </c>
       <c r="C9" t="n">
-        <v>34970</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         <v>1283</v>
       </c>
       <c r="C10" t="n">
-        <v>34970</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         <v>1283</v>
       </c>
       <c r="C11" t="n">
-        <v>34970</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         <v>1283</v>
       </c>
       <c r="C12" t="n">
-        <v>27568</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>1283</v>
       </c>
       <c r="C13" t="n">
-        <v>27568</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>1283</v>
       </c>
       <c r="C14" t="n">
-        <v>27568</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>1283</v>
       </c>
       <c r="C15" t="n">
-        <v>27568</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>1283</v>
       </c>
       <c r="C16" t="n">
-        <v>27568</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         <v>1138</v>
       </c>
       <c r="C17" t="n">
-        <v>38975.6</v>
+        <v>34.24920913884007</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>1078</v>
       </c>
       <c r="C18" t="n">
-        <v>38292</v>
+        <v>35.52133580705009</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>1078</v>
       </c>
       <c r="C19" t="n">
-        <v>38340</v>
+        <v>35.56586270871985</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>1078</v>
       </c>
       <c r="C20" t="n">
-        <v>38292</v>
+        <v>35.52133580705009</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>1078</v>
       </c>
       <c r="C21" t="n">
-        <v>29668</v>
+        <v>27.52133580705009</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>1078</v>
       </c>
       <c r="C22" t="n">
-        <v>38292</v>
+        <v>35.52133580705009</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>878</v>
       </c>
       <c r="C23" t="n">
-        <v>39567.62</v>
+        <v>45.0656264236902</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>809</v>
       </c>
       <c r="C24" t="n">
-        <v>25757.65</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>809</v>
       </c>
       <c r="C25" t="n">
-        <v>21377.65</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>809</v>
       </c>
       <c r="C26" t="n">
-        <v>21377.65</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>809</v>
       </c>
       <c r="C27" t="n">
-        <v>21377.65</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>809</v>
       </c>
       <c r="C28" t="n">
-        <v>25757.65</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>809</v>
       </c>
       <c r="C29" t="n">
-        <v>18496.65</v>
+        <v>22.86359703337454</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>809</v>
       </c>
       <c r="C30" t="n">
-        <v>21377.65</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>809</v>
       </c>
       <c r="C31" t="n">
-        <v>21377.65</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>809</v>
       </c>
       <c r="C32" t="n">
-        <v>21377.65</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>809</v>
       </c>
       <c r="C33" t="n">
-        <v>18496.65</v>
+        <v>22.86359703337454</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>809</v>
       </c>
       <c r="C34" t="n">
-        <v>18496.65</v>
+        <v>22.86359703337454</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>809</v>
       </c>
       <c r="C35" t="n">
-        <v>25757.65</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>809</v>
       </c>
       <c r="C36" t="n">
-        <v>25757.65</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>809</v>
       </c>
       <c r="C37" t="n">
-        <v>25757.65</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>809</v>
       </c>
       <c r="C38" t="n">
-        <v>21377.65</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>809</v>
       </c>
       <c r="C39" t="n">
-        <v>18496.65</v>
+        <v>22.86359703337454</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>809</v>
       </c>
       <c r="C40" t="n">
-        <v>18496.65</v>
+        <v>22.86359703337454</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>809</v>
       </c>
       <c r="C41" t="n">
-        <v>21377.65</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>549</v>
       </c>
       <c r="C42" t="n">
-        <v>16889.6</v>
+        <v>30.76429872495446</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>549</v>
       </c>
       <c r="C43" t="n">
-        <v>16889.6</v>
+        <v>30.76429872495446</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>549</v>
       </c>
       <c r="C44" t="n">
-        <v>16889.6</v>
+        <v>30.76429872495446</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>549</v>
       </c>
       <c r="C45" t="n">
-        <v>16889.6</v>
+        <v>30.76429872495446</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>549</v>
       </c>
       <c r="C46" t="n">
-        <v>16889.6</v>
+        <v>30.76429872495446</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>474</v>
       </c>
       <c r="C47" t="n">
-        <v>16375</v>
+        <v>34.54641350210971</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>474</v>
       </c>
       <c r="C48" t="n">
-        <v>5473</v>
+        <v>11.5464135021097</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>470</v>
       </c>
       <c r="C49" t="n">
-        <v>19082.42</v>
+        <v>40.60089361702127</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>470</v>
       </c>
       <c r="C50" t="n">
-        <v>19082.42</v>
+        <v>40.60089361702127</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>470</v>
       </c>
       <c r="C51" t="n">
-        <v>19082.42</v>
+        <v>40.60089361702127</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>427</v>
       </c>
       <c r="C52" t="n">
-        <v>17816</v>
+        <v>41.72365339578455</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>427</v>
       </c>
       <c r="C53" t="n">
-        <v>17816</v>
+        <v>41.72365339578455</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>427</v>
       </c>
       <c r="C54" t="n">
-        <v>17816</v>
+        <v>41.72365339578455</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>427</v>
       </c>
       <c r="C55" t="n">
-        <v>17816</v>
+        <v>41.72365339578455</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>427</v>
       </c>
       <c r="C56" t="n">
-        <v>17816</v>
+        <v>41.72365339578455</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>367</v>
       </c>
       <c r="C57" t="n">
-        <v>8363</v>
+        <v>22.7874659400545</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>367</v>
       </c>
       <c r="C58" t="n">
-        <v>8363</v>
+        <v>22.7874659400545</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>367</v>
       </c>
       <c r="C59" t="n">
-        <v>8363</v>
+        <v>22.7874659400545</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>367</v>
       </c>
       <c r="C60" t="n">
-        <v>8363</v>
+        <v>22.7874659400545</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>367</v>
       </c>
       <c r="C61" t="n">
-        <v>8363</v>
+        <v>22.7874659400545</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>210</v>
       </c>
       <c r="C62" t="n">
-        <v>2290.8</v>
+        <v>10.90857142857143</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>210</v>
       </c>
       <c r="C63" t="n">
-        <v>4699.8</v>
+        <v>22.38</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>210</v>
       </c>
       <c r="C64" t="n">
-        <v>2290.8</v>
+        <v>10.90857142857143</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>210</v>
       </c>
       <c r="C65" t="n">
-        <v>2290.8</v>
+        <v>10.90857142857143</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>210</v>
       </c>
       <c r="C66" t="n">
-        <v>2290.8</v>
+        <v>10.90857142857143</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>143</v>
       </c>
       <c r="C67" t="n">
-        <v>2720</v>
+        <v>19.02097902097902</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>143</v>
       </c>
       <c r="C68" t="n">
-        <v>2720</v>
+        <v>19.02097902097902</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>143</v>
       </c>
       <c r="C69" t="n">
-        <v>2720</v>
+        <v>19.02097902097902</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>2720</v>
+        <v>19.02097902097902</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>127</v>
       </c>
       <c r="C71" t="n">
-        <v>2510</v>
+        <v>19.76377952755906</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>127</v>
       </c>
       <c r="C72" t="n">
-        <v>2510</v>
+        <v>19.76377952755906</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>127</v>
       </c>
       <c r="C73" t="n">
-        <v>2510</v>
+        <v>19.76377952755906</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>127</v>
       </c>
       <c r="C74" t="n">
-        <v>2510</v>
+        <v>19.76377952755906</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>127</v>
       </c>
       <c r="C75" t="n">
-        <v>2510</v>
+        <v>19.76377952755906</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>89</v>
       </c>
       <c r="C76" t="n">
-        <v>1393</v>
+        <v>15.65168539325843</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>89</v>
       </c>
       <c r="C77" t="n">
-        <v>1393</v>
+        <v>15.65168539325843</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>89</v>
       </c>
       <c r="C78" t="n">
-        <v>1393</v>
+        <v>15.65168539325843</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>89</v>
       </c>
       <c r="C79" t="n">
-        <v>1393</v>
+        <v>15.65168539325843</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>83</v>
       </c>
       <c r="C80" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>83</v>
       </c>
       <c r="C86" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>83</v>
       </c>
       <c r="C87" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>83</v>
       </c>
       <c r="C88" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>83</v>
       </c>
       <c r="C89" t="n">
-        <v>1625</v>
+        <v>19.57831325301205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>60</v>
       </c>
       <c r="C90" t="n">
-        <v>1933</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>60</v>
       </c>
       <c r="C91" t="n">
-        <v>1933</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>60</v>
       </c>
       <c r="C92" t="n">
-        <v>1484</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>60</v>
       </c>
       <c r="C93" t="n">
-        <v>1484</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>60</v>
       </c>
       <c r="C94" t="n">
-        <v>1484</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>60</v>
       </c>
       <c r="C95" t="n">
-        <v>1933</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>60</v>
       </c>
       <c r="C96" t="n">
-        <v>1933</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>60</v>
       </c>
       <c r="C97" t="n">
-        <v>1484</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>60</v>
       </c>
       <c r="C98" t="n">
-        <v>1484</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>60</v>
       </c>
       <c r="C99" t="n">
-        <v>1933</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>384</v>
+        <v>12.8</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="C101" t="n">
-        <v>342</v>
+        <v>21.375</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>15</v>
       </c>
       <c r="C102" t="n">
-        <v>182.76</v>
+        <v>12.184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>15</v>
       </c>
       <c r="C103" t="n">
-        <v>182.76</v>
+        <v>12.184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="C104" t="n">
-        <v>182.76</v>
+        <v>12.184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>15</v>
       </c>
       <c r="C105" t="n">
-        <v>182.76</v>
+        <v>12.184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>182.76</v>
+        <v>12.184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="C107" t="n">
-        <v>182.76</v>
+        <v>12.184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>15</v>
       </c>
       <c r="C108" t="n">
-        <v>242.4</v>
+        <v>16.16</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>242.4</v>
+        <v>16.16</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>13</v>
       </c>
       <c r="C110" t="n">
-        <v>390.35</v>
+        <v>30.02692307692308</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="C111" t="n">
-        <v>85</v>
+        <v>7.727272727272728</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>11</v>
       </c>
       <c r="C112" t="n">
-        <v>85</v>
+        <v>7.727272727272728</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>85</v>
+        <v>7.727272727272728</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>11</v>
       </c>
       <c r="C114" t="n">
-        <v>85</v>
+        <v>7.727272727272728</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>11</v>
       </c>
       <c r="C115" t="n">
-        <v>85</v>
+        <v>7.727272727272728</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>8</v>
       </c>
       <c r="C116" t="n">
-        <v>119.84</v>
+        <v>14.98</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="C117" t="n">
-        <v>209</v>
+        <v>41.8</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="n">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="n">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="n">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/questions/tours_go_together.xlsx
+++ b/questions/tours_go_together.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('537ES', 'STL539')</t>
+          <t>('537FR', 'STL539')</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('537DE', 'STL539')</t>
+          <t>('537ES', 'STL539')</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -505,14 +505,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Unknown,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('537FR', 'STL539')</t>
+          <t>('537DE', 'STL539')</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -523,32 +523,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
+          <t>Unknown,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'TO240')</t>
+          <t>('278IT', 'TO240')</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1283</v>
       </c>
       <c r="C6" t="n">
-        <v>27.2564302416212</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('278ES', 'TO240')</t>
+          <t>('278DE', 'TO240')</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -559,32 +559,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'TO240')</t>
+          <t>('278ES', 'TO240')</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1283</v>
       </c>
       <c r="C8" t="n">
-        <v>27.2564302416212</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('181', '459IT', '51', 'TO240')</t>
+          <t>('181', '459FR', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -602,7 +602,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('181', '459DE', '51', 'TO240')</t>
+          <t>('181', '459ES', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -613,61 +613,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'TO240')</t>
+          <t>('278en', 'TO240')</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1283</v>
       </c>
       <c r="C11" t="n">
-        <v>27.2564302416212</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('278DE', 'TO240')</t>
+          <t>('181', '459IT', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1283</v>
       </c>
       <c r="C12" t="n">
-        <v>21.4871395167576</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('278en', 'TO240')</t>
+          <t>('181', '459EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1283</v>
       </c>
       <c r="C13" t="n">
-        <v>21.4871395167576</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -710,18 +710,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('278IT', 'TO240')</t>
+          <t>('181', '459DE', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1283</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4871395167576</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -782,43 +782,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('490FR', 'STL512')</t>
+          <t>('490EN', '775', 'STL512')</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1078</v>
       </c>
       <c r="C20" t="n">
-        <v>35.52133580705009</v>
+        <v>27.52133580705009</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon:E-ticket to National Tile Museum with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('490EN', '775', 'STL512')</t>
+          <t>('490ES', 'STL512')</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1078</v>
       </c>
       <c r="C21" t="n">
-        <v>27.52133580705009</v>
+        <v>35.52133580705009</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon:E-ticket to National Tile Museum with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('490ES', 'STL512')</t>
+          <t>('490FR', 'STL512')</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -854,25 +854,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('226IT', 'STL107')</t>
+          <t>('403FR', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>809</v>
       </c>
       <c r="C24" t="n">
-        <v>31.83887515451174</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'STL107')</t>
+          <t>('403DE', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -890,7 +890,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'STL107')</t>
+          <t>('403IT', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -901,14 +901,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'STL107')</t>
+          <t>('403DE', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -919,32 +919,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('226ES', 'STL107')</t>
+          <t>('403FR', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>809</v>
       </c>
       <c r="C28" t="n">
-        <v>31.83887515451174</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('226ES', '403', 'STL107')</t>
+          <t>('226IT', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -962,7 +962,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'STL107')</t>
+          <t>('403EN', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -980,25 +980,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('403IT', 'HIGH', 'STL107')</t>
+          <t>('226IT', 'STL107')</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>809</v>
       </c>
       <c r="C31" t="n">
-        <v>26.42478368355995</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'STL107')</t>
+          <t>('403ES', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1016,7 +1016,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('226IT', '403', 'STL107')</t>
+          <t>('226FR', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1034,7 +1034,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('226FR', '403', 'STL107')</t>
+          <t>('226DE', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('226FR', 'STL107')</t>
+          <t>('226ES', 'STL107')</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1070,61 +1070,61 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('226DE', 'STL107')</t>
+          <t>('226ES', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>809</v>
       </c>
       <c r="C36" t="n">
-        <v>31.83887515451174</v>
+        <v>22.86359703337454</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('226EN', 'STL107')</t>
+          <t>('403EN', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>809</v>
       </c>
       <c r="C37" t="n">
-        <v>31.83887515451174</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'STL107')</t>
+          <t>('226EN', 'STL107')</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>809</v>
       </c>
       <c r="C38" t="n">
-        <v>26.42478368355995</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('226DE', '403', 'STL107')</t>
+          <t>('226EN', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1135,50 +1135,50 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('226EN', '403', 'STL107')</t>
+          <t>('226DE', 'STL107')</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>809</v>
       </c>
       <c r="C40" t="n">
-        <v>22.86359703337454</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'STL107')</t>
+          <t>('226FR', 'STL107')</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>809</v>
       </c>
       <c r="C41" t="n">
-        <v>26.42478368355995</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('447ES', 'STL55')</t>
+          <t>('447EN', 'STL55')</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1196,7 +1196,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('447EN', 'STL55')</t>
+          <t>('447DE', 'STL55')</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1207,14 +1207,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('447FR', 'STL55')</t>
+          <t>('447IT', 'STL55')</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1232,7 +1232,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('447DE', 'STL55')</t>
+          <t>('447FR', 'STL55')</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1243,14 +1243,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('447IT', 'STL55')</t>
+          <t>('447ES', 'STL55')</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1268,43 +1268,43 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('490IT', 'STL512')</t>
+          <t>('490EN', '543', '644', 'STL512')</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>474</v>
       </c>
       <c r="C47" t="n">
-        <v>34.54641350210971</v>
+        <v>11.5464135021097</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('490EN', '543', '644', 'STL512')</t>
+          <t>('490IT', 'STL512')</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>474</v>
       </c>
       <c r="C48" t="n">
-        <v>11.5464135021097</v>
+        <v>34.54641350210971</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('288EN', 'STL284')</t>
+          <t>('288IT', 'STL284')</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1340,7 +1340,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('288IT', 'STL284')</t>
+          <t>('288EN', 'STL284')</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1358,7 +1358,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('181', '278IT', '51', 'TO240')</t>
+          <t>('181', '278EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1412,7 +1412,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('181', '278EN', '51', 'TO240')</t>
+          <t>('181', '278FR', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1430,7 +1430,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('181', '278FR', '51', 'TO240')</t>
+          <t>('181', '278IT', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1448,7 +1448,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('490FR', 'STL543')</t>
+          <t>('490EN', 'STL543')</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1466,7 +1466,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('490IT', 'STL543')</t>
+          <t>('490ES', 'STL543')</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1484,7 +1484,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('490ES', 'STL543')</t>
+          <t>('490FR', 'STL543')</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1502,7 +1502,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('490EN', 'STL543')</t>
+          <t>('490IT', 'STL543')</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1538,7 +1538,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('537EN', '539', 'STL526')</t>
+          <t>('537ES', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1556,43 +1556,43 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('490EN', '543', 'STL644')</t>
+          <t>('537FR', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>210</v>
       </c>
       <c r="C63" t="n">
-        <v>22.38</v>
+        <v>10.90857142857143</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('537DE', '539', 'STL526')</t>
+          <t>('490EN', '543', 'STL644')</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>210</v>
       </c>
       <c r="C64" t="n">
-        <v>10.90857142857143</v>
+        <v>22.38</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('537ES', '539', 'STL526')</t>
+          <t>('537EN', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1610,7 +1610,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('537FR', '539', 'STL526')</t>
+          <t>('537DE', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1621,14 +1621,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('226ES', 'STL403')</t>
+          <t>('226EN', 'STL403')</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1646,7 +1646,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('226EN', 'STL403')</t>
+          <t>('226ES', 'STL403')</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1664,7 +1664,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('226DE', 'STL403')</t>
+          <t>('226FR', 'STL403')</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1675,14 +1675,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Unknown, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('226FR', 'STL403')</t>
+          <t>('226DE', 'STL403')</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
+          <t>Unknown, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('433EN', 'STL454')</t>
+          <t>('433IT', 'STL454')</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1736,7 +1736,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('433IT', 'STL454')</t>
+          <t>('433FR', 'STL454')</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1772,7 +1772,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('433FR', 'STL454')</t>
+          <t>('433EN', 'STL454')</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1790,7 +1790,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('181', '459EN', 'STL51')</t>
+          <t>('181', '459IT', 'STL51')</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1808,7 +1808,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('181', '459IT', 'STL51')</t>
+          <t>('181', '459DE', 'STL51')</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1819,14 +1819,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('181', '459DE', 'STL51')</t>
+          <t>('181', '459EN', 'STL51')</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'TO107')</t>
+          <t>('403IT', 'TO107')</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('403IT', 'TO107')</t>
+          <t>('403DE', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1909,14 +1909,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('403ES', 'TO107')</t>
+          <t>('403FR', 'TO107')</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1934,7 +1934,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('403FR', 'TO107')</t>
+          <t>('403FR', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1945,14 +1945,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('403EN', 'TO107')</t>
+          <t>('403DE', 'TO107')</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'TO107')</t>
+          <t>('403ES', 'TO107')</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1981,14 +1981,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('403DE', 'TO107')</t>
+          <t>('403ES', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1999,14 +1999,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'TO107')</t>
+          <t>('403EN', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2017,14 +2017,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'TO107')</t>
+          <t>('403EN', 'TO107')</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2035,14 +2035,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('447ES', 'STL278')</t>
+          <t>('447IT', 'STL278')</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2060,25 +2060,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('447DE', 'STL278')</t>
+          <t>('55IT', 'STL278')</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>60</v>
       </c>
       <c r="C91" t="n">
-        <v>32.21666666666667</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('55IT', 'STL278')</t>
+          <t>('55DE', 'STL278')</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
@@ -2114,25 +2114,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('55EN', 'STL278')</t>
+          <t>('447FR', 'STL278')</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>60</v>
       </c>
       <c r="C94" t="n">
-        <v>24.73333333333333</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('447IT', 'STL278')</t>
+          <t>('447ES', 'STL278')</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2150,43 +2150,43 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('447EN', 'STL278')</t>
+          <t>('55ES', 'STL278')</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>60</v>
       </c>
       <c r="C96" t="n">
-        <v>32.21666666666667</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('55ES', 'STL278')</t>
+          <t>('447EN', 'STL278')</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>60</v>
       </c>
       <c r="C97" t="n">
-        <v>24.73333333333333</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('55DE', 'STL278')</t>
+          <t>('55EN', 'STL278')</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2197,14 +2197,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('447FR', 'STL278')</t>
+          <t>('447DE', 'STL278')</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
@@ -2258,18 +2258,18 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'AU240')</t>
+          <t>('403IT', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>15</v>
       </c>
       <c r="C102" t="n">
-        <v>12.184</v>
+        <v>16.16</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('181', '459IT', '51', 'AU240')</t>
+          <t>('181', '459EN', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2312,7 +2312,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('181', '459GR', '51', 'AU240')</t>
+          <t>('181', '459IT', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2330,25 +2330,25 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'AU240')</t>
+          <t>('403ES', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>12.184</v>
+        <v>16.16</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'AU240')</t>
+          <t>('181', '459ES', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2366,36 +2366,36 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('403ES', 'LOW', 'STL107')</t>
+          <t>('181', '459FR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>15</v>
       </c>
       <c r="C108" t="n">
-        <v>16.16</v>
+        <v>12.184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('403IT', 'LOW', 'STL107')</t>
+          <t>('181', '459GR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>16.16</v>
+        <v>12.184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('51DE', 'STL616')</t>
+          <t>('51EN', 'STL616')</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2431,14 +2431,14 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('51FR', 'STL616')</t>
+          <t>('51ES', 'STL616')</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2456,7 +2456,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('51ES', 'STL616')</t>
+          <t>('51FR', 'STL616')</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2492,7 +2492,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('51EN', 'STL616')</t>
+          <t>('51DE', 'STL616')</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'TO107')</t>
+          <t>('403EN', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2557,14 +2557,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'TO107')</t>
+          <t>('403FR', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2582,7 +2582,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'TO107')</t>
+          <t>('403DE', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>

--- a/questions/tours_go_together.xlsx
+++ b/questions/tours_go_together.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('537FR', 'STL539')</t>
+          <t>('537ES', 'STL539')</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('537ES', 'STL539')</t>
+          <t>('537DE', 'STL539')</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -505,14 +505,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
+          <t>Unknown,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('537DE', 'STL539')</t>
+          <t>('537FR', 'STL539')</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -523,32 +523,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Unknown,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios,  Quinta da Regaleira E-Ticket with Audio and Sintra City Tour</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('278IT', 'TO240')</t>
+          <t>('181', '459ES', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1283</v>
       </c>
       <c r="C6" t="n">
-        <v>21.4871395167576</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('278DE', 'TO240')</t>
+          <t>('278ES', 'TO240')</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -559,32 +559,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('278ES', 'TO240')</t>
+          <t>('181', '459FR', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1283</v>
       </c>
       <c r="C8" t="n">
-        <v>21.4871395167576</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'TO240')</t>
+          <t>('181', '459IT', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -602,7 +602,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'TO240')</t>
+          <t>('181', '459DE', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -613,61 +613,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('278en', 'TO240')</t>
+          <t>('181', '459EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1283</v>
       </c>
       <c r="C11" t="n">
-        <v>21.4871395167576</v>
+        <v>27.2564302416212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('181', '459IT', '51', 'TO240')</t>
+          <t>('278DE', 'TO240')</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1283</v>
       </c>
       <c r="C12" t="n">
-        <v>27.2564302416212</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'TO240')</t>
+          <t>('278en', 'TO240')</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1283</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2564302416212</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Unknown,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -710,18 +710,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('181', '459DE', '51', 'TO240')</t>
+          <t>('278IT', 'TO240')</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1283</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2564302416212</v>
+        <v>21.4871395167576</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
+          <t>Acropolis, 8 Top Attractions &amp; Museums + Audio Tours,  Acropolis Hill and Acropolis Museum Entry Tickets</t>
         </is>
       </c>
     </row>
@@ -782,43 +782,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('490EN', '775', 'STL512')</t>
+          <t>('490FR', 'STL512')</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1078</v>
       </c>
       <c r="C20" t="n">
-        <v>27.52133580705009</v>
+        <v>35.52133580705009</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon:E-ticket to National Tile Museum with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('490ES', 'STL512')</t>
+          <t>('490EN', '775', 'STL512')</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1078</v>
       </c>
       <c r="C21" t="n">
-        <v>35.52133580705009</v>
+        <v>27.52133580705009</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon:E-ticket to National Tile Museum with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('490FR', 'STL512')</t>
+          <t>('490ES', 'STL512')</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -854,25 +854,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'STL107')</t>
+          <t>('226IT', 'STL107')</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>809</v>
       </c>
       <c r="C24" t="n">
-        <v>26.42478368355995</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'STL107')</t>
+          <t>('403DE', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -890,7 +890,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('403IT', 'HIGH', 'STL107')</t>
+          <t>('403DE', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -901,14 +901,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'STL107')</t>
+          <t>('403EN', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -919,32 +919,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'STL107')</t>
+          <t>('226ES', 'STL107')</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>809</v>
       </c>
       <c r="C28" t="n">
-        <v>26.42478368355995</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('226IT', '403', 'STL107')</t>
+          <t>('226ES', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -962,7 +962,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'STL107')</t>
+          <t>('403FR', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -980,25 +980,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('226IT', 'STL107')</t>
+          <t>('403IT', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>809</v>
       </c>
       <c r="C31" t="n">
-        <v>31.83887515451174</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'STL107')</t>
+          <t>('403FR', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1016,7 +1016,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('226FR', '403', 'STL107')</t>
+          <t>('226IT', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1034,7 +1034,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('226DE', '403', 'STL107')</t>
+          <t>('226FR', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('226ES', 'STL107')</t>
+          <t>('226FR', 'STL107')</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1070,61 +1070,61 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('226ES', '403', 'STL107')</t>
+          <t>('226DE', 'STL107')</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>809</v>
       </c>
       <c r="C36" t="n">
-        <v>22.86359703337454</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'STL107')</t>
+          <t>('226EN', 'STL107')</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>809</v>
       </c>
       <c r="C37" t="n">
-        <v>26.42478368355995</v>
+        <v>31.83887515451174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('226EN', 'STL107')</t>
+          <t>('403EN', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>809</v>
       </c>
       <c r="C38" t="n">
-        <v>31.83887515451174</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('226EN', '403', 'STL107')</t>
+          <t>('226DE', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1135,50 +1135,50 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Unknown, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('226DE', 'STL107')</t>
+          <t>('226EN', '403', 'STL107')</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>809</v>
       </c>
       <c r="C40" t="n">
-        <v>31.83887515451174</v>
+        <v>22.86359703337454</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('226FR', 'STL107')</t>
+          <t>('403ES', 'HIGH', 'STL107')</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>809</v>
       </c>
       <c r="C41" t="n">
-        <v>31.83887515451174</v>
+        <v>26.42478368355995</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('447EN', 'STL55')</t>
+          <t>('447ES', 'STL55')</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1196,7 +1196,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('447DE', 'STL55')</t>
+          <t>('447EN', 'STL55')</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1207,14 +1207,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('447IT', 'STL55')</t>
+          <t>('447FR', 'STL55')</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1232,7 +1232,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('447FR', 'STL55')</t>
+          <t>('447DE', 'STL55')</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1243,14 +1243,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
+          <t>Unknown,  National Arch. Museum e-Ticket &amp; Athens City Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('447ES', 'STL55')</t>
+          <t>('447IT', 'STL55')</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1268,43 +1268,43 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('490EN', '543', '644', 'STL512')</t>
+          <t>('490IT', 'STL512')</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>474</v>
       </c>
       <c r="C47" t="n">
-        <v>11.5464135021097</v>
+        <v>34.54641350210971</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('490IT', 'STL512')</t>
+          <t>('490EN', '543', '644', 'STL512')</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>474</v>
       </c>
       <c r="C48" t="n">
-        <v>34.54641350210971</v>
+        <v>11.5464135021097</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour,  Lisbon: Saint George's Castle Entry &amp; City Self-Guided Tours</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('288IT', 'STL284')</t>
+          <t>('288EN', 'STL284')</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1340,7 +1340,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('288EN', 'STL284')</t>
+          <t>('288IT', 'STL284')</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1358,7 +1358,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('181', '278EN', '51', 'TO240')</t>
+          <t>('181', '278IT', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1412,7 +1412,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('181', '278FR', '51', 'TO240')</t>
+          <t>('181', '278EN', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1430,7 +1430,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('181', '278IT', '51', 'TO240')</t>
+          <t>('181', '278FR', '51', 'TO240')</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1448,7 +1448,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('490EN', 'STL543')</t>
+          <t>('490FR', 'STL543')</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1466,7 +1466,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('490ES', 'STL543')</t>
+          <t>('490IT', 'STL543')</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1484,7 +1484,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('490FR', 'STL543')</t>
+          <t>('490ES', 'STL543')</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1502,7 +1502,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('490IT', 'STL543')</t>
+          <t>('490EN', 'STL543')</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1538,7 +1538,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('537ES', '539', 'STL526')</t>
+          <t>('537EN', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1556,43 +1556,43 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('537FR', '539', 'STL526')</t>
+          <t>('490EN', '543', 'STL644')</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>210</v>
       </c>
       <c r="C63" t="n">
-        <v>10.90857142857143</v>
+        <v>22.38</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('490EN', '543', 'STL644')</t>
+          <t>('537DE', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>210</v>
       </c>
       <c r="C64" t="n">
-        <v>22.38</v>
+        <v>10.90857142857143</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Self-Guided City Tour and Belem Tower Entry e-Ticket, Lisbon: Belem Tower Entry with Self-Guided Audio Tour, Lisbon: Jeronimos Monastery e-Ticket with Audio Tour</t>
+          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('537EN', '539', 'STL526')</t>
+          <t>('537ES', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1610,7 +1610,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('537DE', '539', 'STL526')</t>
+          <t>('537FR', '539', 'STL526')</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1621,14 +1621,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Unknown, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
+          <t>Moorish Castle &amp; Quinta da Regaleira Tickets with 3 Audios, Sintra: Quinta da Regaleira Skip-the-Line Entry &amp; Audio Tour,  Quinta da Regaleira &amp; Moorish Castle Tickets with 3 Audios</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('226EN', 'STL403')</t>
+          <t>('226ES', 'STL403')</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1646,7 +1646,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('226ES', 'STL403')</t>
+          <t>('226EN', 'STL403')</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1664,7 +1664,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('226FR', 'STL403')</t>
+          <t>('226DE', 'STL403')</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1675,14 +1675,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
+          <t>Unknown, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('226DE', 'STL403')</t>
+          <t>('226FR', 'STL403')</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Unknown, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
+          <t>Knossos Palace: E-ticket with Audio and Heraklion City Tour, Crete: Heraklion Archaeological Museum Ticket &amp; Audio Guide</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('433IT', 'STL454')</t>
+          <t>('433EN', 'STL454')</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1736,7 +1736,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('433FR', 'STL454')</t>
+          <t>('433IT', 'STL454')</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1772,7 +1772,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('433EN', 'STL454')</t>
+          <t>('433FR', 'STL454')</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1790,7 +1790,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('181', '459IT', 'STL51')</t>
+          <t>('181', '459EN', 'STL51')</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1808,7 +1808,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('181', '459DE', 'STL51')</t>
+          <t>('181', '459IT', 'STL51')</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1819,14 +1819,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('181', '459EN', 'STL51')</t>
+          <t>('181', '459DE', 'STL51')</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown,  Athens: Agora, Zeus Temple, Kerameikos Skip-the-Line &amp; Audio</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('403IT', 'TO107')</t>
+          <t>('403FR', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('403DE', 'HIGH', 'TO107')</t>
+          <t>('403IT', 'TO107')</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1909,14 +1909,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('403FR', 'TO107')</t>
+          <t>('403ES', 'TO107')</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1934,7 +1934,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('403FR', 'HIGH', 'TO107')</t>
+          <t>('403FR', 'TO107')</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1945,14 +1945,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('403DE', 'TO107')</t>
+          <t>('403EN', 'TO107')</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('403ES', 'TO107')</t>
+          <t>('403EN', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1981,14 +1981,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('403ES', 'HIGH', 'TO107')</t>
+          <t>('403DE', 'TO107')</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1999,14 +1999,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('403EN', 'HIGH', 'TO107')</t>
+          <t>('403DE', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2017,14 +2017,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('403EN', 'TO107')</t>
+          <t>('403ES', 'HIGH', 'TO107')</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2035,14 +2035,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('447IT', 'STL278')</t>
+          <t>('447ES', 'STL278')</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2060,25 +2060,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('55IT', 'STL278')</t>
+          <t>('447DE', 'STL278')</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>60</v>
       </c>
       <c r="C91" t="n">
-        <v>24.73333333333333</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('55DE', 'STL278')</t>
+          <t>('55IT', 'STL278')</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
@@ -2114,25 +2114,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('447FR', 'STL278')</t>
+          <t>('55EN', 'STL278')</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>60</v>
       </c>
       <c r="C94" t="n">
-        <v>32.21666666666667</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('447ES', 'STL278')</t>
+          <t>('447IT', 'STL278')</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2150,43 +2150,43 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('55ES', 'STL278')</t>
+          <t>('447EN', 'STL278')</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>60</v>
       </c>
       <c r="C96" t="n">
-        <v>24.73333333333333</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('447EN', 'STL278')</t>
+          <t>('55ES', 'STL278')</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>60</v>
       </c>
       <c r="C97" t="n">
-        <v>32.21666666666667</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('55EN', 'STL278')</t>
+          <t>('55DE', 'STL278')</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2197,14 +2197,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Athens National Archaeological Museum Ticket with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('447DE', 'STL278')</t>
+          <t>('447FR', 'STL278')</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Unknown,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
+          <t>Athens: Acropolis and Museum Entry Tickets with Audio Tour,  Acropolis Museum E-Ticket with Audio &amp; Athens Audio Tour</t>
         </is>
       </c>
     </row>
@@ -2258,18 +2258,18 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('403IT', 'LOW', 'STL107')</t>
+          <t>('181', '459EN', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>15</v>
       </c>
       <c r="C102" t="n">
-        <v>16.16</v>
+        <v>12.184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('181', '459EN', '51', 'AU240')</t>
+          <t>('181', '459IT', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2312,7 +2312,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('181', '459IT', '51', 'AU240')</t>
+          <t>('181', '459GR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2330,25 +2330,25 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('403ES', 'LOW', 'STL107')</t>
+          <t>('181', '459ES', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>16.16</v>
+        <v>12.184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('181', '459ES', '51', 'AU240')</t>
+          <t>('181', '459FR', '51', 'AU240')</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2366,36 +2366,36 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('181', '459FR', '51', 'AU240')</t>
+          <t>('403ES', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>15</v>
       </c>
       <c r="C108" t="n">
-        <v>12.184</v>
+        <v>16.16</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('181', '459GR', '51', 'AU240')</t>
+          <t>('403IT', 'LOW', 'STL107')</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>12.184</v>
+        <v>16.16</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Acropolis &amp; 6 Archaeological Sites Combo Ticket, Unknown</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Archaeological Museum Tickets and Audio</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('51EN', 'STL616')</t>
+          <t>('51DE', 'STL616')</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2431,14 +2431,14 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('51ES', 'STL616')</t>
+          <t>('51FR', 'STL616')</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2456,7 +2456,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('51FR', 'STL616')</t>
+          <t>('51ES', 'STL616')</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2492,7 +2492,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('51DE', 'STL616')</t>
+          <t>('51EN', 'STL616')</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Unknown,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
+          <t>Acropolis &amp; 6 Archaeological Sites Combo Ticket,  Roman Agora, Ancient Agora : E-ticket with 2 Audio Tours</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('403EN', 'LOW', 'TO107')</t>
+          <t>('403DE', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2557,14 +2557,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('403FR', 'LOW', 'TO107')</t>
+          <t>('403EN', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2582,7 +2582,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('403DE', 'LOW', 'TO107')</t>
+          <t>('403FR', 'LOW', 'TO107')</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Unknown, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
+          <t>Heraklion: Archaeological Museum &amp; Knossos Ticket with Audio, Unknown,  Knossos Palace and Heraklion Arch. Museum Entry Tickets Only</t>
         </is>
       </c>
     </row>
